--- a/TOTAL AMOUNT.xlsx
+++ b/TOTAL AMOUNT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhupendra\OneDrive - Default Directory\Desktop\Doc\invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35B750C-EF31-4F7C-9369-4D0D56725A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D6191D-1366-4D79-9A77-B962341C5D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>TOTAL HOURS</t>
   </si>
@@ -92,20 +92,6 @@
     <t xml:space="preserve">February </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">*Amount to be received: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>$14,698.67</t>
-    </r>
-  </si>
-  <si>
     <t>Amount received in April= 5,000 + 11,000= 16,000</t>
   </si>
   <si>
@@ -119,6 +105,12 @@
   </si>
   <si>
     <t>Total amount to be received till April= (13,098.67 + 3,500)- 16,000 = 598.67</t>
+  </si>
+  <si>
+    <t>*Amount to be received</t>
+  </si>
+  <si>
+    <t>*From here new rate</t>
   </si>
 </sst>
 </file>
@@ -181,12 +173,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -220,8 +206,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +254,18 @@
         <fgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -272,12 +278,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -308,10 +314,26 @@
     <xf numFmtId="6" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent5" xfId="4" builtinId="45"/>
@@ -596,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="81" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -609,9 +631,10 @@
     <col min="3" max="3" width="27.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="63.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -625,7 +648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25.15" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -639,10 +662,14 @@
         <v>4</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="22.9" x14ac:dyDescent="0.65">
+        <v>23</v>
+      </c>
+      <c r="G2" s="23">
+        <f>C22-D22</f>
+        <v>4500.6699999999983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="22.9" x14ac:dyDescent="0.65">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -656,7 +683,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="22.9" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:7" ht="22.9" x14ac:dyDescent="0.65">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -670,7 +697,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="22.9" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:7" ht="22.9" x14ac:dyDescent="0.65">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -684,7 +711,7 @@
         <v>6170</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="22.9" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:7" ht="22.9" x14ac:dyDescent="0.65">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -698,10 +725,10 @@
         <v>2000</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="22.9" x14ac:dyDescent="0.65">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="22.9" x14ac:dyDescent="0.65">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -715,10 +742,10 @@
         <v>3500</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="22.9" x14ac:dyDescent="0.65">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="22.9" x14ac:dyDescent="0.65">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -732,10 +759,10 @@
         <v>2700</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="22.9" x14ac:dyDescent="0.65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="22.9" x14ac:dyDescent="0.65">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -749,10 +776,10 @@
         <v>14775</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="22.9" x14ac:dyDescent="0.65">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="22.9" x14ac:dyDescent="0.65">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -766,7 +793,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="22.9" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:7" ht="22.9" x14ac:dyDescent="0.65">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -780,10 +807,10 @@
         <v>500</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="22.9" x14ac:dyDescent="0.65">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="22.9" x14ac:dyDescent="0.65">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -797,7 +824,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="22.9" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:7" ht="22.9" x14ac:dyDescent="0.65">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -811,7 +838,7 @@
         <v>16750</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="22.9" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:7" ht="22.9" x14ac:dyDescent="0.65">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -824,8 +851,9 @@
       <c r="D14" s="6">
         <v>1600</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="22.9" x14ac:dyDescent="0.65">
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" ht="22.9" x14ac:dyDescent="0.65">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -838,8 +866,9 @@
       <c r="D15" s="6">
         <v>16000</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="22.9" x14ac:dyDescent="0.65">
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" ht="22.9" x14ac:dyDescent="0.65">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -853,21 +882,24 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="22.9" x14ac:dyDescent="0.65">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:6" s="20" customFormat="1" ht="22.9" x14ac:dyDescent="0.65">
+      <c r="A17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="17">
         <v>226</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="18">
         <v>6102</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="19">
         <v>4000</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="22.9" x14ac:dyDescent="0.65">
+      <c r="F17" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="22.9" x14ac:dyDescent="0.65">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -881,7 +913,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="22.9" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:6" ht="22.9" x14ac:dyDescent="0.65">
       <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
@@ -895,25 +927,53 @@
         <v>4240</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="22.9" x14ac:dyDescent="0.65">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:6" ht="22.9" x14ac:dyDescent="0.65">
+      <c r="A20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2">
+        <v>228.5</v>
+      </c>
+      <c r="C20" s="4">
+        <v>6169.5</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="22.9" x14ac:dyDescent="0.65">
+      <c r="A21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2">
+        <v>232</v>
+      </c>
+      <c r="C21" s="4">
+        <v>6264</v>
+      </c>
+      <c r="D21" s="6">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="22.9" x14ac:dyDescent="0.65">
+      <c r="A22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="9">
-        <f>SUM(B2:B19)</f>
-        <v>3443.25</v>
-      </c>
-      <c r="C20" s="10">
-        <f>SUM(C2:C19)</f>
-        <v>87352.17</v>
-      </c>
-      <c r="D20" s="11">
-        <f>SUM(D3:D19)</f>
-        <v>86985</v>
+      <c r="B22" s="9">
+        <f>SUM(B2:B21)</f>
+        <v>3903.75</v>
+      </c>
+      <c r="C22" s="10">
+        <f>SUM(C2:C21)</f>
+        <v>99785.67</v>
+      </c>
+      <c r="D22" s="11">
+        <f>SUM(D3:D21)</f>
+        <v>95285</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
